--- a/Programming and algorithmization.xlsx
+++ b/Programming and algorithmization.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="8055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="БИВТ-22-17" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
   <si>
     <t>ФИО</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>Half-term CW</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -972,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,7 +1494,9 @@
       <c r="A20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1766,7 +1771,9 @@
       <c r="A31" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="14"/>
+      <c r="B31" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1927,11 +1934,11 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N32" si="0">SUM(C3:M3)</f>
+        <f t="shared" ref="N3:N26" si="0">SUM(C3:M3)</f>
         <v>0</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O32" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
+        <f t="shared" ref="O3:O26" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
         <v>0</v>
       </c>
     </row>
@@ -2620,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,7 +2689,9 @@
       <c r="A2" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -2720,11 +2729,11 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="2">
-        <f t="shared" ref="N3:N32" si="0">SUM(C3:M3)</f>
+        <f t="shared" ref="N3:N30" si="0">SUM(C3:M3)</f>
         <v>0</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O32" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
+        <f t="shared" ref="O3:O30" si="1">_xlfn.FLOOR.MATH(N3/10)</f>
         <v>0</v>
       </c>
     </row>
@@ -2907,7 +2916,9 @@
       <c r="A11" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
